--- a/Descargas/R15_9º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
+++ b/Descargas/R15_9º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="B84" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
